--- a/biology/Microbiologie/Balantidiidae/Balantidiidae.xlsx
+++ b/biology/Microbiologie/Balantidiidae/Balantidiidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Balantidiidae  sont une famille de Ciliés de la classe des Heterotrichea et de l’ordre des Heterotrichida.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de la famille vient du genre type Balantidium, dérivé du grec ancien βαλαντ / balant, « petite bourse », et du suffixe latin -ium, « relatif à », en référence à la forme du corps [1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de la famille vient du genre type Balantidium, dérivé du grec ancien βαλαντ / balant, « petite bourse », et du suffixe latin -ium, « relatif à », en référence à la forme du corps .
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les membres de Balantidium se distinguent par la forme de leur corps qui est renflé en arrière et aminci en avant[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les membres de Balantidium se distinguent par la forme de leur corps qui est renflé en arrière et aminci en avant.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce Balantidium coli, le seul cilié parasite chez l'Homme, a une répartition cosmopolite mais est plus fréquente en climats subtropical et tempéré. La maladie de la « balantidiose » apparaît surtout lorsque hygiène précaire et sous-alimentation fragilisent une population vivant en contact étroit avec ce réservoir animal très important qu'est le porc.
-Claparède &amp; Lachmann ont extrait des Balantidium du rectum de la grenouille verte Rana esculenta[1].
+Claparède &amp; Lachmann ont extrait des Balantidium du rectum de la grenouille verte Rana esculenta.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (16 janvier 2023)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (16 janvier 2023) :
 Balantidiopsis Bütschli, 1889
 Balantidium Claparède &amp; Lachmann, 1858</t>
         </is>
@@ -637,9 +657,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Balantidiidae Reichenow in Doflein &amp; Reichenow, 1929[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Balantidiidae Reichenow in Doflein &amp; Reichenow, 1929.
 </t>
         </is>
       </c>
